--- a/public/contracts/20251215_픽앤뷰_리뉴얼_WBS.xlsx
+++ b/public/contracts/20251215_픽앤뷰_리뉴얼_WBS.xlsx
@@ -3866,7 +3866,7 @@
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>SNS 크롤러</t>
+          <t>리뷰링크관리</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr"/>
@@ -3930,13 +3930,13 @@
       <c r="B44" s="3" t="inlineStr"/>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>인스타그램</t>
+          <t>링크 저장</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr"/>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>인스타그램 콘텐츠 자동 수집</t>
+          <t>사용자 제출 SNS 리뷰 링크 저장</t>
         </is>
       </c>
       <c r="F44" s="3" t="n">
